--- a/server6/pre_info_new.xlsx
+++ b/server6/pre_info_new.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="704"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="704" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="sales_rep" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3">pp_info!$A$1:$K$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">pp_info!$A$1:$K$41</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="3">pp_info!$A$1:$K$41</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="3">pp_info!$A$1:$K$41</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="3">pp_info!$A$1:$K$41</definedName>
@@ -929,7 +929,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
@@ -1251,7 +1251,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1381,7 +1381,7 @@
         <v>54</v>
       </c>
       <c r="D5" s="10">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="E5" s="11">
         <v>55</v>
@@ -3007,9 +3007,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AMJ41"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -3073,7 +3074,7 @@
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024">
+    <row r="2" spans="1:1024" hidden="1">
       <c r="A2" s="21">
         <v>1</v>
       </c>
@@ -3113,7 +3114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1024">
+    <row r="3" spans="1:1024" hidden="1">
       <c r="A3" s="21">
         <v>1</v>
       </c>
@@ -3153,7 +3154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1024">
+    <row r="4" spans="1:1024" hidden="1">
       <c r="A4" s="21">
         <v>1</v>
       </c>
@@ -3232,7 +3233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:1024">
+    <row r="6" spans="1:1024" hidden="1">
       <c r="A6" s="21">
         <v>2</v>
       </c>
@@ -3272,7 +3273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:1024">
+    <row r="7" spans="1:1024" hidden="1">
       <c r="A7" s="21">
         <v>2</v>
       </c>
@@ -3312,7 +3313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:1024">
+    <row r="8" spans="1:1024" hidden="1">
       <c r="A8" s="21">
         <v>2</v>
       </c>
@@ -3391,7 +3392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:1024">
+    <row r="10" spans="1:1024" hidden="1">
       <c r="A10" s="21">
         <v>3</v>
       </c>
@@ -3431,7 +3432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:1024">
+    <row r="11" spans="1:1024" hidden="1">
       <c r="A11" s="21">
         <v>3</v>
       </c>
@@ -3471,7 +3472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:1024">
+    <row r="12" spans="1:1024" hidden="1">
       <c r="A12" s="21">
         <v>3</v>
       </c>
@@ -3550,7 +3551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:1024">
+    <row r="14" spans="1:1024" hidden="1">
       <c r="A14" s="21">
         <v>4</v>
       </c>
@@ -3590,7 +3591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:1024">
+    <row r="15" spans="1:1024" hidden="1">
       <c r="A15" s="21">
         <v>4</v>
       </c>
@@ -3630,7 +3631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:1024">
+    <row r="16" spans="1:1024" hidden="1">
       <c r="A16" s="21">
         <v>4</v>
       </c>
@@ -3709,7 +3710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" hidden="1">
       <c r="A18" s="21">
         <v>5</v>
       </c>
@@ -3749,7 +3750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" hidden="1">
       <c r="A19" s="21">
         <v>5</v>
       </c>
@@ -3789,7 +3790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" hidden="1">
       <c r="A20" s="21">
         <v>5</v>
       </c>
@@ -3868,7 +3869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" hidden="1">
       <c r="A22" s="21">
         <v>6</v>
       </c>
@@ -3908,7 +3909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" hidden="1">
       <c r="A23" s="21">
         <v>6</v>
       </c>
@@ -3948,7 +3949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" hidden="1">
       <c r="A24" s="21">
         <v>6</v>
       </c>
@@ -4027,7 +4028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" hidden="1">
       <c r="A26" s="21">
         <v>7</v>
       </c>
@@ -4067,7 +4068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" hidden="1">
       <c r="A27" s="21">
         <v>7</v>
       </c>
@@ -4107,7 +4108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" hidden="1">
       <c r="A28" s="21">
         <v>7</v>
       </c>
@@ -4186,7 +4187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" hidden="1">
       <c r="A30" s="21">
         <v>8</v>
       </c>
@@ -4226,7 +4227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" hidden="1">
       <c r="A31" s="21">
         <v>8</v>
       </c>
@@ -4266,7 +4267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" hidden="1">
       <c r="A32" s="21">
         <v>8</v>
       </c>
@@ -4345,7 +4346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" hidden="1">
       <c r="A34" s="21">
         <v>9</v>
       </c>
@@ -4385,7 +4386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" hidden="1">
       <c r="A35" s="21">
         <v>9</v>
       </c>
@@ -4425,7 +4426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" hidden="1">
       <c r="A36" s="21">
         <v>9</v>
       </c>
@@ -4504,7 +4505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" hidden="1">
       <c r="A38" s="21">
         <v>10</v>
       </c>
@@ -4544,7 +4545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" hidden="1">
       <c r="A39" s="21">
         <v>10</v>
       </c>
@@ -4584,7 +4585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" hidden="1">
       <c r="A40" s="21">
         <v>10</v>
       </c>
@@ -4664,7 +4665,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K41"/>
+  <autoFilter ref="A1:K41">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="4"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
